--- a/020-内部_プログラミング設計/022-クラス仕様書/Interface/IFindableDataToDto_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/Interface/IFindableDataToDto_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16797475-21F9-4A64-9512-0D24E61EAD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A37B31-C3E5-4F8E-9879-746FA7C06277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -2955,7 +2955,7 @@
   <dimension ref="A1:IX33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="P10" sqref="P10:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11364,6 +11364,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -11372,7 +11378,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -11504,13 +11510,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -11518,7 +11527,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11534,13 +11543,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>